--- a/ig/main/ValueSet-JDV-J281-StatutsRessourcesMS.xlsx
+++ b/ig/main/ValueSet-JDV-J281-StatutsRessourcesMS.xlsx
@@ -7,13 +7,13 @@
   </bookViews>
   <sheets>
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
-    <sheet name="Include ValueSet #0" r:id="rId4" sheetId="2"/>
+    <sheet name="Include #0" r:id="rId4" sheetId="2"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="43">
   <si>
     <t>Property</t>
   </si>
@@ -99,7 +99,49 @@
     <t>BooleanType[null]</t>
   </si>
   <si>
-    <t>ValueSet URL</t>
+    <t>Concept</t>
+  </si>
+  <si>
+    <t>TERMINE</t>
+  </si>
+  <si>
+    <t>Terminé</t>
+  </si>
+  <si>
+    <t>VALIDE</t>
+  </si>
+  <si>
+    <t>Validé</t>
+  </si>
+  <si>
+    <t>APPROUVE</t>
+  </si>
+  <si>
+    <t>Approuvé</t>
+  </si>
+  <si>
+    <t>PLANIFIE</t>
+  </si>
+  <si>
+    <t>Planifié</t>
+  </si>
+  <si>
+    <t>REALISE</t>
+  </si>
+  <si>
+    <t>Réalisé</t>
+  </si>
+  <si>
+    <t>ANNULE</t>
+  </si>
+  <si>
+    <t>Annulé</t>
+  </si>
+  <si>
+    <t>System URI</t>
+  </si>
+  <si>
+    <t>https://mos.esante.gouv.fr/NOS/TRE_R368-StatutRessource</t>
   </si>
 </sst>
 </file>
@@ -370,7 +412,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -384,6 +426,73 @@
       <c r="A1" t="s" s="1">
         <v>28</v>
       </c>
+      <c r="B1" t="s" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="B2" t="s" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="B5" t="s" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="B6" t="s" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="B7" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="B9" t="s" s="2">
+        <v>42</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/ig/main/ValueSet-JDV-J281-StatutsRessourcesMS.xlsx
+++ b/ig/main/ValueSet-JDV-J281-StatutsRessourcesMS.xlsx
@@ -141,7 +141,7 @@
     <t>System URI</t>
   </si>
   <si>
-    <t>https://mos.esante.gouv.fr/NOS/TRE_R368-StatutRessource</t>
+    <t>https://mos.esante.gouv.fr/NOS/TRE_R368-StatutRessource/FHIR/TRE-R368-StatutRessource</t>
   </si>
 </sst>
 </file>

--- a/ig/main/ValueSet-JDV-J281-StatutsRessourcesMS.xlsx
+++ b/ig/main/ValueSet-JDV-J281-StatutsRessourcesMS.xlsx
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.3.0</t>
+    <t>1.4.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/ig/main/ValueSet-JDV-J281-StatutsRessourcesMS.xlsx
+++ b/ig/main/ValueSet-JDV-J281-StatutsRessourcesMS.xlsx
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.4.0</t>
+    <t>1.5.0</t>
   </si>
   <si>
     <t>Name</t>
